--- a/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>SMMT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,38 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43496</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43131</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,24 +706,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,9 +736,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,9 +766,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,23 +813,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +870,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,24 +900,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,23 +944,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29500</v>
+        <v>54100</v>
       </c>
       <c r="E17" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F17" s="3">
         <v>51100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,24 +971,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-28800</v>
+        <v>-53200</v>
       </c>
       <c r="E18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,23 +1018,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,24 +1045,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-27800</v>
+        <v>-51100</v>
       </c>
       <c r="E21" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F21" s="3">
         <v>10800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,51 +1075,57 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,24 +1135,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,24 +1195,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-29000</v>
+        <v>-52700</v>
       </c>
       <c r="E26" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F26" s="3">
         <v>9900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,24 +1225,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29000</v>
+        <v>-52700</v>
       </c>
       <c r="E27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F27" s="3">
         <v>9900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,24 +1375,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,24 +1405,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29000</v>
+        <v>-52700</v>
       </c>
       <c r="E33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,24 +1465,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29000</v>
+        <v>-52700</v>
       </c>
       <c r="E35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43496</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43131</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,23 +1561,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E41" s="3">
         <v>63800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,24 +1618,27 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,9 +1648,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,24 +1678,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,24 +1708,27 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E46" s="3">
         <v>79600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>61300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,9 +1738,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1664,24 +1768,27 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,24 +1798,27 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="E49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F49" s="3">
         <v>16300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,9 +1888,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,24 +1948,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96700</v>
+        <v>102500</v>
       </c>
       <c r="E54" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F54" s="3">
         <v>79600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,23 +2009,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,9 +2036,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,24 +2066,27 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,24 +2096,27 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E60" s="3">
         <v>13800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,9 +2126,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2000,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2014,24 +2156,27 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,24 +2276,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19400</v>
+        <v>23000</v>
       </c>
       <c r="E66" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F66" s="3">
         <v>23800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,24 +2440,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-159900</v>
+        <v>-210900</v>
       </c>
       <c r="E72" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-130900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,24 +2560,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77200</v>
+        <v>79500</v>
       </c>
       <c r="E76" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F76" s="3">
         <v>55800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43496</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43131</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,24 +2655,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29000</v>
+        <v>-52700</v>
       </c>
       <c r="E81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,23 +2702,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,24 +2879,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,23 +2926,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,24 +3013,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,24 +3177,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E100" s="3">
         <v>49500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,24 +3207,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2989,24 +3237,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>28600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>SMMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,41 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43131</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,27 +709,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,9 +742,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,9 +775,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,26 +826,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E12" s="3">
         <v>52000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37600</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,27 +889,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -903,27 +922,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,26 +970,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E17" s="3">
         <v>54100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,27 +1000,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,26 +1051,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,27 +1081,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,9 +1114,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,8 +1129,8 @@
       <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1105,30 +1144,33 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,27 +1180,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,27 +1246,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,27 +1279,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,27 +1444,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,27 +1477,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,27 +1543,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1498,32 +1576,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43131</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1614,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,26 +1647,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E41" s="3">
         <v>66400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,27 +1710,30 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,9 +1743,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,27 +1776,30 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,27 +1809,30 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E46" s="3">
         <v>87700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>79600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,9 +1842,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,27 +1875,30 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,27 +1908,30 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E49" s="3">
         <v>13500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,27 +2073,30 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E54" s="3">
         <v>102500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,26 +2139,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,9 +2169,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2069,27 +2202,30 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,27 +2235,30 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E60" s="3">
         <v>19900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,9 +2268,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,11 +2287,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2159,27 +2301,30 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,27 +2433,30 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E66" s="3">
         <v>23000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,27 +2613,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-299500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-210900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-130900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,27 +2745,30 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E76" s="3">
         <v>79500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,32 +2811,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43131</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,27 +2849,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,26 +2900,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,27 +3095,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,26 +3146,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,27 +3242,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,27 +3422,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E100" s="3">
         <v>50600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,27 +3455,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,27 +3488,30 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>SMMT</t>
   </si>
@@ -1091,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-87000</v>
+        <v>-86800</v>
       </c>
       <c r="E21" s="3">
-        <v>-51100</v>
+        <v>-51400</v>
       </c>
       <c r="F21" s="3">
-        <v>-27500</v>
+        <v>-27000</v>
       </c>
       <c r="G21" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-25500</v>
+        <v>9400</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -2907,19 +2907,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
-        <v>1600</v>
-      </c>
       <c r="F83" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H83" s="3">
         <v>300</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3105,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72600</v>
+        <v>-48100</v>
       </c>
       <c r="E89" s="3">
-        <v>-48100</v>
+        <v>-20800</v>
       </c>
       <c r="F89" s="3">
-        <v>-20800</v>
+        <v>-35100</v>
       </c>
       <c r="G89" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="H89" s="3">
         <v>-21500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H91" s="3">
         <v>-700</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
         <v>-7000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>77900</v>
+        <v>50600</v>
       </c>
       <c r="E100" s="3">
-        <v>50600</v>
+        <v>49500</v>
       </c>
       <c r="F100" s="3">
-        <v>49500</v>
+        <v>44500</v>
       </c>
       <c r="G100" s="3">
-        <v>44500</v>
-      </c>
-      <c r="H100" s="3">
         <v>18800</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3465,19 +3465,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H101" s="3">
         <v>2900</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5400</v>
+        <v>2600</v>
       </c>
       <c r="E102" s="3">
-        <v>2600</v>
+        <v>28600</v>
       </c>
       <c r="F102" s="3">
-        <v>28600</v>
+        <v>6800</v>
       </c>
       <c r="G102" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H102" s="3">
         <v>-6800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMMT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>SMMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,44 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43131</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,30 +712,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,9 +748,12 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,9 +784,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,29 +839,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E12" s="3">
         <v>84300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37600</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,30 +908,33 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,30 +944,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,29 +996,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E17" s="3">
         <v>88000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,30 +1029,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-86200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,29 +1084,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,29 +1117,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-86800</v>
+        <v>-73100</v>
       </c>
       <c r="E21" s="3">
-        <v>-51400</v>
+        <v>-87000</v>
       </c>
       <c r="F21" s="3">
-        <v>-27000</v>
+        <v>-51100</v>
       </c>
       <c r="G21" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-27500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-25500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1117,14 +1153,17 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1132,8 +1171,8 @@
       <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1147,33 +1186,36 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-88600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,30 +1225,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,9 +1261,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,30 +1297,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-88600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,30 +1333,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-88600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,30 +1513,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,30 +1549,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-88600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,30 +1621,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-88600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,35 +1657,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43131</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1698,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,29 +1733,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>348600</v>
+      </c>
+      <c r="E41" s="3">
         <v>71800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,9 +1766,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,30 +1802,33 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E43" s="3">
         <v>17200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,9 +1838,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,30 +1874,33 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,30 +1910,33 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>656700</v>
+      </c>
+      <c r="E46" s="3">
         <v>97300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,9 +1946,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,30 +1982,33 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1911,30 +2018,33 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
         <v>12400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,18 +2126,21 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2037,15 +2156,18 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,30 +2198,33 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>664200</v>
+      </c>
+      <c r="E54" s="3">
         <v>113400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2109,9 +2234,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,29 +2269,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2172,32 +2302,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>19800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2205,30 +2338,33 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
         <v>21200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,30 +2374,33 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E60" s="3">
         <v>25600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2271,14 +2410,17 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>494500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2290,11 +2432,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2304,30 +2446,33 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,9 +2482,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,30 +2590,33 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>537500</v>
+      </c>
+      <c r="E66" s="3">
         <v>30100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,9 +2626,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,30 +2786,33 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-378300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-299500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-210900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-130900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,9 +2822,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,30 +2930,33 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E76" s="3">
         <v>83300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2781,9 +2966,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3002,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43131</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,30 +3043,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-88600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,29 +3098,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
         <v>1300</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,30 +3311,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-48100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-35100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,29 +3366,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3471,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,30 +3667,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>620200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F100" s="3">
         <v>50600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>49500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>44500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>18800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,30 +3703,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3491,30 +3739,33 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>576800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>28600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3775,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
